--- a/soildata_pdftocsv/parameters.xlsx
+++ b/soildata_pdftocsv/parameters.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smma\OneDrive - HAS Hogeschool\Documents\Onderzoek\BOs\1920\bodemlabpdf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://haskennisplein-my.sharepoint.com/personal/smma_has_nl/Documents/Documents/Onderzoek/Projecten/Jaar4/BOs/1920/bodemlabpdf/soildata_pdftocsv/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="51" documentId="114_{D70C292C-087C-4801-B8FF-2962563F2992}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{01FAE1AB-66E2-4862-9CF2-9831BDDC83A2}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="regex" sheetId="1" r:id="rId1"/>
@@ -21,20 +22,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="759" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="262">
   <si>
     <t>parameters</t>
   </si>
@@ -709,12 +702,123 @@
   </si>
   <si>
     <t>(zand|klei|leem|lemig zand|veengrond|veen)</t>
+  </si>
+  <si>
+    <t>BLGG</t>
+  </si>
+  <si>
+    <t>Onderzoek-/ordernr:</t>
+  </si>
+  <si>
+    <t>(\d+/\d+)</t>
+  </si>
+  <si>
+    <t>\D+\s+(&lt;?\d+,?\d*)\s*</t>
+  </si>
+  <si>
+    <t>(\w+\s+P\w*/\w+)</t>
+  </si>
+  <si>
+    <t>(\w+[K\+]{1}/\w+)</t>
+  </si>
+  <si>
+    <t>N-totale bodemvoorraad_methode</t>
+  </si>
+  <si>
+    <t>N-totale bodemvoorraad\s+\d+</t>
+  </si>
+  <si>
+    <t>(Em: \w+ [[:graph:]]*)|(Gw : \w+ [[:graph:]]*)|(Cf: \w+ [[:graph:]]*)</t>
+  </si>
+  <si>
+    <t>S-totale bodemvoorraad_methode</t>
+  </si>
+  <si>
+    <t>S-totale bodemvoorraad\s+\d+</t>
+  </si>
+  <si>
+    <t>K-bodemvoorraad_methode</t>
+  </si>
+  <si>
+    <t>K-bodemvoorraad\s+\d+</t>
+  </si>
+  <si>
+    <t>Ca-bodemvoorraad_methode</t>
+  </si>
+  <si>
+    <t>Ca-bodemvoorraad\s+\d+</t>
+  </si>
+  <si>
+    <t>Mg-bodemvoorraad_methode</t>
+  </si>
+  <si>
+    <t>Mg-bodemvoorraad\s+\d+</t>
+  </si>
+  <si>
+    <t>Na-bodemvoorraad_methode</t>
+  </si>
+  <si>
+    <t>Na-bodemvoorraad\s+\d+</t>
+  </si>
+  <si>
+    <t>pH-water_methode</t>
+  </si>
+  <si>
+    <t>Zuurgraad[[:print:]]+[EmGwCf]{2}</t>
+  </si>
+  <si>
+    <t>C-organisch_methode</t>
+  </si>
+  <si>
+    <t>C-organisch[[:print:]]+[EmGwCf]{2}</t>
+  </si>
+  <si>
+    <t>C-anorganisch_methode</t>
+  </si>
+  <si>
+    <t>C-anorganisch[[:print:]]+[EmGwCf]{2}</t>
+  </si>
+  <si>
+    <t>Koolzure kalk_methode</t>
+  </si>
+  <si>
+    <t>Koolzure kalk[[:print:]]+[EmGwCf]{2}</t>
+  </si>
+  <si>
+    <t>Klei (&lt;2 μm)_methode</t>
+  </si>
+  <si>
+    <t>Silt (2-50 μm)_methode</t>
+  </si>
+  <si>
+    <t>Silt (2-50 μm)[[:print:]]+[EmGwCf]{2}</t>
+  </si>
+  <si>
+    <t>Zand (&gt;50 μm)_methode</t>
+  </si>
+  <si>
+    <t>Zand (&gt;50 μm)[[:print:]]+[EmGwCf]{2}</t>
+  </si>
+  <si>
+    <t>CEC_methode</t>
+  </si>
+  <si>
+    <t>CEC[[:print:]]+[EmGwCf]{2}</t>
+  </si>
+  <si>
+    <t>Microbiële activiteit_methode</t>
+  </si>
+  <si>
+    <t>Microbiële activiteit[[:print:]]+[EmGwCf]{2}</t>
+  </si>
+  <si>
+    <t>Klei [[:print:]]+[EmGwCf]{2}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -752,9 +856,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1034,24 +1139,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E173"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E266"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B123" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B126" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E134" sqref="E134"/>
+      <selection pane="bottomRight" activeCell="E139" sqref="E139"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>147</v>
       </c>
@@ -1068,97 +1173,97 @@
         <v>97</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>148</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C2" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3">
+      <c r="C3" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="E3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="2">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="2">
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>148</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>148</v>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
@@ -1167,49 +1272,49 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>148</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>148</v>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>148</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -1218,32 +1323,32 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>148</v>
-      </c>
-      <c r="B11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>148</v>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="B12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C12" t="s">
         <v>113</v>
@@ -1252,32 +1357,32 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>148</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="B13" t="s">
-        <v>112</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>113</v>
+        <v>5</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>148</v>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="B14" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -1286,32 +1391,32 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>148</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>148</v>
+        <v>228</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
         <v>7</v>
@@ -1320,49 +1425,49 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>148</v>
-      </c>
-      <c r="B17" t="s">
-        <v>62</v>
-      </c>
-      <c r="C17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>148</v>
-      </c>
-      <c r="B18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>148</v>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="B19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C19" t="s">
         <v>116</v>
@@ -1371,32 +1476,32 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" t="s">
+        <v>109</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>148</v>
-      </c>
-      <c r="B20" t="s">
-        <v>91</v>
-      </c>
-      <c r="C20" t="s">
-        <v>116</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>148</v>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="B21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C21" t="s">
         <v>109</v>
@@ -1405,32 +1510,32 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>148</v>
-      </c>
-      <c r="B22" t="s">
-        <v>110</v>
-      </c>
-      <c r="C22" t="s">
-        <v>109</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>148</v>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
@@ -1439,32 +1544,32 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B24" t="s">
+        <v>114</v>
+      </c>
+      <c r="C24" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>148</v>
-      </c>
-      <c r="B24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>148</v>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="B25" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C25" t="s">
         <v>114</v>
@@ -1473,32 +1578,32 @@
         <v>0</v>
       </c>
       <c r="E25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>148</v>
-      </c>
-      <c r="B26" t="s">
-        <v>115</v>
-      </c>
-      <c r="C26" t="s">
-        <v>114</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>148</v>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="C27" t="s">
         <v>9</v>
@@ -1507,32 +1612,32 @@
         <v>0</v>
       </c>
       <c r="E27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B28" t="s">
+        <v>118</v>
+      </c>
+      <c r="C28" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>148</v>
-      </c>
-      <c r="B28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>148</v>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="B29" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C29" t="s">
         <v>117</v>
@@ -1541,32 +1646,32 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>148</v>
-      </c>
-      <c r="B30" t="s">
-        <v>119</v>
-      </c>
-      <c r="C30" t="s">
-        <v>117</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>148</v>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="C31" t="s">
         <v>10</v>
@@ -1575,32 +1680,32 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B32" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" t="s">
+        <v>122</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>148</v>
-      </c>
-      <c r="B32" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" t="s">
-        <v>10</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>148</v>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="B33" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C33" t="s">
         <v>122</v>
@@ -1609,32 +1714,32 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>148</v>
-      </c>
-      <c r="B34" t="s">
-        <v>121</v>
-      </c>
-      <c r="C34" t="s">
-        <v>122</v>
-      </c>
-      <c r="D34">
-        <v>0</v>
-      </c>
-      <c r="E34" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>148</v>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="B35" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="C35" t="s">
         <v>11</v>
@@ -1643,32 +1748,32 @@
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>148</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="B36" t="s">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="C36" t="s">
-        <v>11</v>
+        <v>124</v>
       </c>
       <c r="D36">
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>148</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="B37" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C37" t="s">
         <v>124</v>
@@ -1677,35 +1782,35 @@
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>148</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="B38" t="s">
-        <v>125</v>
+        <v>151</v>
       </c>
       <c r="C38" t="s">
-        <v>124</v>
+        <v>77</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>148</v>
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="B39" t="s">
-        <v>151</v>
+        <v>12</v>
       </c>
       <c r="C39" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -1714,12 +1819,12 @@
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>148</v>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="C40" t="s">
         <v>12</v>
@@ -1728,32 +1833,32 @@
         <v>0</v>
       </c>
       <c r="E40" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B41" t="s">
+        <v>126</v>
+      </c>
+      <c r="C41" t="s">
+        <v>126</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>148</v>
-      </c>
-      <c r="B41" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" t="s">
-        <v>12</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>148</v>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="B42" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C42" t="s">
         <v>126</v>
@@ -1762,32 +1867,32 @@
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>148</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="B43" t="s">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="C43" t="s">
-        <v>126</v>
+        <v>14</v>
       </c>
       <c r="D43">
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>148</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="B44" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="C44" t="s">
         <v>14</v>
@@ -1796,49 +1901,49 @@
         <v>0</v>
       </c>
       <c r="E44" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>148</v>
-      </c>
-      <c r="B45" t="s">
-        <v>68</v>
-      </c>
-      <c r="C45" t="s">
-        <v>14</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>148</v>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="B46" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>148</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="B47" t="s">
-        <v>16</v>
+        <v>69</v>
       </c>
       <c r="C47" t="s">
         <v>16</v>
@@ -1847,32 +1952,32 @@
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>148</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="B48" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="C48" t="s">
-        <v>16</v>
+        <v>128</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>148</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="B49" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="C49" t="s">
         <v>128</v>
@@ -1881,32 +1986,32 @@
         <v>0</v>
       </c>
       <c r="E49" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B50" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" t="s">
+        <v>129</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>148</v>
-      </c>
-      <c r="B50" t="s">
-        <v>70</v>
-      </c>
-      <c r="C50" t="s">
-        <v>128</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>148</v>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="B51" t="s">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="C51" t="s">
         <v>129</v>
@@ -1915,32 +2020,32 @@
         <v>0</v>
       </c>
       <c r="E51" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B52" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" t="s">
+        <v>130</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>148</v>
-      </c>
-      <c r="B52" t="s">
-        <v>71</v>
-      </c>
-      <c r="C52" t="s">
-        <v>129</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>148</v>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="B53" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="C53" t="s">
         <v>130</v>
@@ -1949,32 +2054,32 @@
         <v>0</v>
       </c>
       <c r="E53" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B54" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" t="s">
+        <v>78</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>148</v>
-      </c>
-      <c r="B54" t="s">
-        <v>72</v>
-      </c>
-      <c r="C54" t="s">
-        <v>130</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-      <c r="E54" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>148</v>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="B55" t="s">
-        <v>24</v>
+        <v>150</v>
       </c>
       <c r="C55" t="s">
         <v>78</v>
@@ -1983,32 +2088,32 @@
         <v>0</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B56" t="s">
+        <v>131</v>
+      </c>
+      <c r="C56" t="s">
+        <v>131</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>148</v>
-      </c>
-      <c r="B56" t="s">
-        <v>150</v>
-      </c>
-      <c r="C56" t="s">
-        <v>78</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>148</v>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="B57" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C57" t="s">
         <v>131</v>
@@ -2017,32 +2122,32 @@
         <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>148</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="B58" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C58" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D58">
         <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>148</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="B59" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C59" t="s">
         <v>133</v>
@@ -2051,32 +2156,32 @@
         <v>0</v>
       </c>
       <c r="E59" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B60" t="s">
+        <v>135</v>
+      </c>
+      <c r="C60" t="s">
+        <v>135</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>148</v>
-      </c>
-      <c r="B60" t="s">
-        <v>134</v>
-      </c>
-      <c r="C60" t="s">
-        <v>133</v>
-      </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="E60" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>148</v>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="B61" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C61" t="s">
         <v>135</v>
@@ -2085,32 +2190,32 @@
         <v>0</v>
       </c>
       <c r="E61" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B62" t="s">
+        <v>137</v>
+      </c>
+      <c r="C62" t="s">
+        <v>137</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>148</v>
-      </c>
-      <c r="B62" t="s">
-        <v>136</v>
-      </c>
-      <c r="C62" t="s">
-        <v>135</v>
-      </c>
-      <c r="D62">
-        <v>0</v>
-      </c>
-      <c r="E62" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>148</v>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="B63" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C63" t="s">
         <v>137</v>
@@ -2119,32 +2224,32 @@
         <v>0</v>
       </c>
       <c r="E63" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B64" t="s">
+        <v>139</v>
+      </c>
+      <c r="C64" t="s">
+        <v>139</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>148</v>
-      </c>
-      <c r="B64" t="s">
-        <v>138</v>
-      </c>
-      <c r="C64" t="s">
-        <v>137</v>
-      </c>
-      <c r="D64">
-        <v>0</v>
-      </c>
-      <c r="E64" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>148</v>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="B65" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C65" t="s">
         <v>139</v>
@@ -2153,32 +2258,32 @@
         <v>0</v>
       </c>
       <c r="E65" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B66" t="s">
+        <v>141</v>
+      </c>
+      <c r="C66" t="s">
+        <v>141</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>148</v>
-      </c>
-      <c r="B66" t="s">
-        <v>140</v>
-      </c>
-      <c r="C66" t="s">
-        <v>139</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
-      <c r="E66" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>148</v>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="B67" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C67" t="s">
         <v>141</v>
@@ -2187,32 +2292,32 @@
         <v>0</v>
       </c>
       <c r="E67" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B68" t="s">
+        <v>143</v>
+      </c>
+      <c r="C68" t="s">
+        <v>143</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>148</v>
-      </c>
-      <c r="B68" t="s">
-        <v>142</v>
-      </c>
-      <c r="C68" t="s">
-        <v>141</v>
-      </c>
-      <c r="D68">
-        <v>0</v>
-      </c>
-      <c r="E68" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>148</v>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="B69" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C69" t="s">
         <v>143</v>
@@ -2221,32 +2326,32 @@
         <v>0</v>
       </c>
       <c r="E69" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>148</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="B70" t="s">
-        <v>144</v>
+        <v>20</v>
       </c>
       <c r="C70" t="s">
-        <v>143</v>
+        <v>20</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>148</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="B71" t="s">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="C71" t="s">
         <v>20</v>
@@ -2255,32 +2360,32 @@
         <v>0</v>
       </c>
       <c r="E71" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B72" t="s">
+        <v>21</v>
+      </c>
+      <c r="C72" t="s">
+        <v>21</v>
+      </c>
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>148</v>
-      </c>
-      <c r="B72" t="s">
-        <v>73</v>
-      </c>
-      <c r="C72" t="s">
-        <v>20</v>
-      </c>
-      <c r="D72">
-        <v>0</v>
-      </c>
-      <c r="E72" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>148</v>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="B73" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="C73" t="s">
         <v>21</v>
@@ -2289,32 +2394,32 @@
         <v>0</v>
       </c>
       <c r="E73" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B74" t="s">
+        <v>22</v>
+      </c>
+      <c r="C74" t="s">
+        <v>22</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>148</v>
-      </c>
-      <c r="B74" t="s">
-        <v>74</v>
-      </c>
-      <c r="C74" t="s">
-        <v>21</v>
-      </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-      <c r="E74" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>148</v>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="B75" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="C75" t="s">
         <v>22</v>
@@ -2323,32 +2428,32 @@
         <v>0</v>
       </c>
       <c r="E75" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>148</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="B76" t="s">
-        <v>75</v>
+        <v>145</v>
       </c>
       <c r="C76" t="s">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="D76">
         <v>0</v>
       </c>
       <c r="E76" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>148</v>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="B77" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C77" t="s">
         <v>145</v>
@@ -2357,32 +2462,32 @@
         <v>0</v>
       </c>
       <c r="E77" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>148</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="B78" t="s">
-        <v>146</v>
+        <v>23</v>
       </c>
       <c r="C78" t="s">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="D78">
         <v>0</v>
       </c>
       <c r="E78" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>148</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" s="2" t="s">
+        <v>225</v>
       </c>
       <c r="B79" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="C79" t="s">
         <v>79</v>
@@ -2391,29 +2496,29 @@
         <v>0</v>
       </c>
       <c r="E79" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>148</v>
       </c>
       <c r="B80" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="C80" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E80" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B81" t="s">
         <v>55</v>
@@ -2422,684 +2527,684 @@
         <v>55</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E81" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B82" t="s">
         <v>56</v>
       </c>
       <c r="C82" t="s">
-        <v>181</v>
+        <v>56</v>
       </c>
       <c r="D82">
         <v>0</v>
       </c>
       <c r="E82" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B83" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="C83" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="D83">
         <v>0</v>
       </c>
       <c r="E83" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B84" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="C84" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="D84">
         <v>0</v>
       </c>
       <c r="E84" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B85" t="s">
-        <v>151</v>
+        <v>2</v>
       </c>
       <c r="C85" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="D85">
         <v>0</v>
       </c>
       <c r="E85" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B86" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="C86" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="D86">
         <v>0</v>
       </c>
       <c r="E86" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B87" t="s">
-        <v>152</v>
+        <v>231</v>
       </c>
       <c r="C87" t="s">
-        <v>27</v>
+        <v>232</v>
       </c>
       <c r="D87">
         <v>0</v>
       </c>
       <c r="E87" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B88" t="s">
-        <v>158</v>
+        <v>3</v>
       </c>
       <c r="C88" t="s">
-        <v>159</v>
+        <v>3</v>
       </c>
       <c r="D88">
         <v>0</v>
       </c>
       <c r="E88" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B89" t="s">
-        <v>153</v>
+        <v>4</v>
       </c>
       <c r="C89" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="D89">
         <v>0</v>
       </c>
       <c r="E89" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B90" t="s">
-        <v>154</v>
+        <v>60</v>
       </c>
       <c r="C90" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="D90">
         <v>0</v>
       </c>
       <c r="E90" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B91" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="C91" t="s">
-        <v>29</v>
+        <v>113</v>
       </c>
       <c r="D91">
         <v>0</v>
       </c>
       <c r="E91" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B92" t="s">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="C92" t="s">
-        <v>29</v>
+        <v>113</v>
       </c>
       <c r="D92">
         <v>0</v>
       </c>
       <c r="E92" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B93" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" t="s">
+        <v>5</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>148</v>
+      </c>
+      <c r="B94" t="s">
+        <v>61</v>
+      </c>
+      <c r="C94" t="s">
+        <v>5</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>148</v>
+      </c>
+      <c r="B95" t="s">
+        <v>234</v>
+      </c>
+      <c r="C95" t="s">
+        <v>235</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>148</v>
+      </c>
+      <c r="B96" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" t="s">
+        <v>7</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>148</v>
+      </c>
+      <c r="B97" t="s">
+        <v>62</v>
+      </c>
+      <c r="C97" t="s">
+        <v>7</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>148</v>
+      </c>
+      <c r="B98" t="s">
+        <v>6</v>
+      </c>
+      <c r="C98" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>148</v>
+      </c>
+      <c r="B99" t="s">
         <v>90</v>
       </c>
-      <c r="C93" t="s">
-        <v>30</v>
-      </c>
-      <c r="D93">
-        <v>0</v>
-      </c>
-      <c r="E93" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>149</v>
-      </c>
-      <c r="B94" t="s">
+      <c r="C99" t="s">
+        <v>116</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>148</v>
+      </c>
+      <c r="B100" t="s">
         <v>91</v>
       </c>
-      <c r="C94" t="s">
-        <v>30</v>
-      </c>
-      <c r="D94">
-        <v>0</v>
-      </c>
-      <c r="E94" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>149</v>
-      </c>
-      <c r="B95" t="s">
+      <c r="C100" t="s">
+        <v>116</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>148</v>
+      </c>
+      <c r="B101" t="s">
+        <v>109</v>
+      </c>
+      <c r="C101" t="s">
+        <v>109</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>148</v>
+      </c>
+      <c r="B102" t="s">
+        <v>110</v>
+      </c>
+      <c r="C102" t="s">
+        <v>109</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>148</v>
+      </c>
+      <c r="B103" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103" t="s">
+        <v>8</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>148</v>
+      </c>
+      <c r="B104" t="s">
+        <v>63</v>
+      </c>
+      <c r="C104" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>148</v>
+      </c>
+      <c r="B105" t="s">
+        <v>236</v>
+      </c>
+      <c r="C105" t="s">
+        <v>237</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>148</v>
+      </c>
+      <c r="B106" t="s">
+        <v>114</v>
+      </c>
+      <c r="C106" t="s">
+        <v>114</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>148</v>
+      </c>
+      <c r="B107" t="s">
+        <v>115</v>
+      </c>
+      <c r="C107" t="s">
+        <v>114</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>148</v>
+      </c>
+      <c r="B108" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108" t="s">
+        <v>9</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>148</v>
+      </c>
+      <c r="B109" t="s">
+        <v>64</v>
+      </c>
+      <c r="C109" t="s">
+        <v>9</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>148</v>
+      </c>
+      <c r="B110" t="s">
+        <v>238</v>
+      </c>
+      <c r="C110" t="s">
+        <v>239</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>148</v>
+      </c>
+      <c r="B111" t="s">
         <v>118</v>
       </c>
-      <c r="C95" t="s">
-        <v>31</v>
-      </c>
-      <c r="D95">
-        <v>0</v>
-      </c>
-      <c r="E95" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>149</v>
-      </c>
-      <c r="B96" t="s">
+      <c r="C111" t="s">
+        <v>117</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>148</v>
+      </c>
+      <c r="B112" t="s">
         <v>119</v>
       </c>
-      <c r="C96" t="s">
-        <v>31</v>
-      </c>
-      <c r="D96">
-        <v>0</v>
-      </c>
-      <c r="E96" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>149</v>
-      </c>
-      <c r="B97" t="s">
+      <c r="C112" t="s">
+        <v>117</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>148</v>
+      </c>
+      <c r="B113" t="s">
+        <v>10</v>
+      </c>
+      <c r="C113" t="s">
+        <v>10</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>148</v>
+      </c>
+      <c r="B114" t="s">
+        <v>65</v>
+      </c>
+      <c r="C114" t="s">
+        <v>10</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>148</v>
+      </c>
+      <c r="B115" t="s">
+        <v>240</v>
+      </c>
+      <c r="C115" t="s">
+        <v>241</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>148</v>
+      </c>
+      <c r="B116" t="s">
         <v>120</v>
       </c>
-      <c r="C97" t="s">
-        <v>32</v>
-      </c>
-      <c r="D97">
-        <v>0</v>
-      </c>
-      <c r="E97" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>149</v>
-      </c>
-      <c r="B98" t="s">
+      <c r="C116" t="s">
+        <v>122</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>148</v>
+      </c>
+      <c r="B117" t="s">
         <v>121</v>
       </c>
-      <c r="C98" t="s">
-        <v>32</v>
-      </c>
-      <c r="D98">
-        <v>0</v>
-      </c>
-      <c r="E98" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>149</v>
-      </c>
-      <c r="B99" t="s">
-        <v>161</v>
-      </c>
-      <c r="C99" t="s">
-        <v>33</v>
-      </c>
-      <c r="D99">
-        <v>0</v>
-      </c>
-      <c r="E99" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>149</v>
-      </c>
-      <c r="B100" t="s">
-        <v>162</v>
-      </c>
-      <c r="C100" t="s">
-        <v>33</v>
-      </c>
-      <c r="D100">
-        <v>0</v>
-      </c>
-      <c r="E100" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>149</v>
-      </c>
-      <c r="B101" t="s">
+      <c r="C117" t="s">
+        <v>122</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>148</v>
+      </c>
+      <c r="B118" t="s">
+        <v>11</v>
+      </c>
+      <c r="C118" t="s">
+        <v>11</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>148</v>
+      </c>
+      <c r="B119" t="s">
+        <v>66</v>
+      </c>
+      <c r="C119" t="s">
+        <v>11</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>148</v>
+      </c>
+      <c r="B120" t="s">
+        <v>242</v>
+      </c>
+      <c r="C120" t="s">
+        <v>243</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>148</v>
+      </c>
+      <c r="B121" t="s">
         <v>123</v>
       </c>
-      <c r="C101" t="s">
-        <v>34</v>
-      </c>
-      <c r="D101">
-        <v>0</v>
-      </c>
-      <c r="E101" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>149</v>
-      </c>
-      <c r="B102" t="s">
-        <v>125</v>
-      </c>
-      <c r="C102" t="s">
-        <v>34</v>
-      </c>
-      <c r="D102">
-        <v>0</v>
-      </c>
-      <c r="E102" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>149</v>
-      </c>
-      <c r="B103" t="s">
-        <v>163</v>
-      </c>
-      <c r="C103" t="s">
-        <v>34</v>
-      </c>
-      <c r="D103">
-        <v>0</v>
-      </c>
-      <c r="E103" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>149</v>
-      </c>
-      <c r="B104" t="s">
-        <v>164</v>
-      </c>
-      <c r="C104" t="s">
-        <v>34</v>
-      </c>
-      <c r="D104">
-        <v>0</v>
-      </c>
-      <c r="E104" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>149</v>
-      </c>
-      <c r="B105" t="s">
-        <v>111</v>
-      </c>
-      <c r="C105" t="s">
-        <v>34</v>
-      </c>
-      <c r="D105">
-        <v>0</v>
-      </c>
-      <c r="E105" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>149</v>
-      </c>
-      <c r="B106" t="s">
-        <v>112</v>
-      </c>
-      <c r="C106" t="s">
-        <v>34</v>
-      </c>
-      <c r="D106">
-        <v>0</v>
-      </c>
-      <c r="E106" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>149</v>
-      </c>
-      <c r="B107" t="s">
-        <v>165</v>
-      </c>
-      <c r="C107" t="s">
-        <v>34</v>
-      </c>
-      <c r="D107">
-        <v>0</v>
-      </c>
-      <c r="E107" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>149</v>
-      </c>
-      <c r="B108" t="s">
-        <v>166</v>
-      </c>
-      <c r="C108" t="s">
-        <v>34</v>
-      </c>
-      <c r="D108">
-        <v>0</v>
-      </c>
-      <c r="E108" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>149</v>
-      </c>
-      <c r="B109" t="s">
-        <v>167</v>
-      </c>
-      <c r="C109" t="s">
-        <v>41</v>
-      </c>
-      <c r="D109">
-        <v>0</v>
-      </c>
-      <c r="E109" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>149</v>
-      </c>
-      <c r="B110" t="s">
-        <v>168</v>
-      </c>
-      <c r="C110" t="s">
-        <v>41</v>
-      </c>
-      <c r="D110">
-        <v>0</v>
-      </c>
-      <c r="E110" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>149</v>
-      </c>
-      <c r="B111" t="s">
-        <v>169</v>
-      </c>
-      <c r="C111" t="s">
-        <v>42</v>
-      </c>
-      <c r="D111">
-        <v>0</v>
-      </c>
-      <c r="E111" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>149</v>
-      </c>
-      <c r="B112" t="s">
-        <v>170</v>
-      </c>
-      <c r="C112" t="s">
-        <v>42</v>
-      </c>
-      <c r="D112">
-        <v>0</v>
-      </c>
-      <c r="E112" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>149</v>
-      </c>
-      <c r="B113" t="s">
-        <v>171</v>
-      </c>
-      <c r="C113" t="s">
-        <v>43</v>
-      </c>
-      <c r="D113">
-        <v>0</v>
-      </c>
-      <c r="E113" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>149</v>
-      </c>
-      <c r="B114" t="s">
-        <v>172</v>
-      </c>
-      <c r="C114" t="s">
-        <v>43</v>
-      </c>
-      <c r="D114">
-        <v>0</v>
-      </c>
-      <c r="E114" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>149</v>
-      </c>
-      <c r="B115" t="s">
-        <v>173</v>
-      </c>
-      <c r="C115" t="s">
-        <v>44</v>
-      </c>
-      <c r="D115">
-        <v>0</v>
-      </c>
-      <c r="E115" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>149</v>
-      </c>
-      <c r="B116" t="s">
-        <v>174</v>
-      </c>
-      <c r="C116" t="s">
-        <v>44</v>
-      </c>
-      <c r="D116">
-        <v>0</v>
-      </c>
-      <c r="E116" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>149</v>
-      </c>
-      <c r="B117" t="s">
-        <v>133</v>
-      </c>
-      <c r="C117" t="s">
-        <v>175</v>
-      </c>
-      <c r="D117">
-        <v>0</v>
-      </c>
-      <c r="E117" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>149</v>
-      </c>
-      <c r="B118" t="s">
-        <v>134</v>
-      </c>
-      <c r="C118" t="s">
-        <v>175</v>
-      </c>
-      <c r="D118">
-        <v>0</v>
-      </c>
-      <c r="E118" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>149</v>
-      </c>
-      <c r="B119" t="s">
-        <v>135</v>
-      </c>
-      <c r="C119" t="s">
-        <v>176</v>
-      </c>
-      <c r="D119">
-        <v>0</v>
-      </c>
-      <c r="E119" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>149</v>
-      </c>
-      <c r="B120" t="s">
-        <v>136</v>
-      </c>
-      <c r="C120" t="s">
-        <v>176</v>
-      </c>
-      <c r="D120">
-        <v>0</v>
-      </c>
-      <c r="E120" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>149</v>
-      </c>
-      <c r="B121" t="s">
-        <v>137</v>
-      </c>
       <c r="C121" t="s">
-        <v>177</v>
+        <v>124</v>
       </c>
       <c r="D121">
         <v>0</v>
@@ -3108,83 +3213,83 @@
         <v>106</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B122" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="C122" t="s">
-        <v>177</v>
+        <v>124</v>
       </c>
       <c r="D122">
         <v>0</v>
       </c>
       <c r="E122" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B123" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="C123" t="s">
-        <v>178</v>
+        <v>77</v>
       </c>
       <c r="D123">
         <v>0</v>
       </c>
       <c r="E123" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B124" t="s">
-        <v>140</v>
+        <v>244</v>
       </c>
       <c r="C124" t="s">
-        <v>178</v>
+        <v>245</v>
       </c>
       <c r="D124">
         <v>0</v>
       </c>
       <c r="E124" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B125" t="s">
-        <v>143</v>
+        <v>12</v>
       </c>
       <c r="C125" t="s">
-        <v>179</v>
+        <v>12</v>
       </c>
       <c r="D125">
         <v>0</v>
       </c>
       <c r="E125" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B126" t="s">
-        <v>144</v>
+        <v>67</v>
       </c>
       <c r="C126" t="s">
-        <v>179</v>
+        <v>12</v>
       </c>
       <c r="D126">
         <v>0</v>
@@ -3193,151 +3298,151 @@
         <v>95</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B127" t="s">
-        <v>141</v>
+        <v>246</v>
       </c>
       <c r="C127" t="s">
-        <v>180</v>
+        <v>247</v>
       </c>
       <c r="D127">
         <v>0</v>
       </c>
       <c r="E127" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>148</v>
+      </c>
+      <c r="B128" t="s">
+        <v>126</v>
+      </c>
+      <c r="C128" t="s">
+        <v>126</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>148</v>
+      </c>
+      <c r="B129" t="s">
+        <v>127</v>
+      </c>
+      <c r="C129" t="s">
+        <v>126</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>148</v>
+      </c>
+      <c r="B130" t="s">
+        <v>248</v>
+      </c>
+      <c r="C130" t="s">
+        <v>249</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>148</v>
+      </c>
+      <c r="B131" t="s">
+        <v>14</v>
+      </c>
+      <c r="C131" t="s">
+        <v>14</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>148</v>
+      </c>
+      <c r="B132" t="s">
+        <v>68</v>
+      </c>
+      <c r="C132" t="s">
+        <v>14</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>148</v>
+      </c>
+      <c r="B133" t="s">
+        <v>15</v>
+      </c>
+      <c r="C133" t="s">
+        <v>15</v>
+      </c>
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>148</v>
+      </c>
+      <c r="B134" t="s">
+        <v>16</v>
+      </c>
+      <c r="C134" t="s">
+        <v>16</v>
+      </c>
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>149</v>
-      </c>
-      <c r="B128" t="s">
-        <v>142</v>
-      </c>
-      <c r="C128" t="s">
-        <v>180</v>
-      </c>
-      <c r="D128">
-        <v>0</v>
-      </c>
-      <c r="E128" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>184</v>
-      </c>
-      <c r="B129" t="s">
-        <v>55</v>
-      </c>
-      <c r="C129" t="s">
-        <v>185</v>
-      </c>
-      <c r="D129">
-        <v>1</v>
-      </c>
-      <c r="E129" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>184</v>
-      </c>
-      <c r="B130" t="s">
-        <v>56</v>
-      </c>
-      <c r="C130" t="s">
-        <v>185</v>
-      </c>
-      <c r="D130">
-        <v>1</v>
-      </c>
-      <c r="E130" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>184</v>
-      </c>
-      <c r="B131" t="s">
-        <v>54</v>
-      </c>
-      <c r="C131" t="s">
-        <v>187</v>
-      </c>
-      <c r="D131">
-        <v>0</v>
-      </c>
-      <c r="E131" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A132" t="s">
-        <v>184</v>
-      </c>
-      <c r="B132" t="s">
-        <v>57</v>
-      </c>
-      <c r="C132" t="s">
-        <v>57</v>
-      </c>
-      <c r="D132">
-        <v>1</v>
-      </c>
-      <c r="E132" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A133" t="s">
-        <v>184</v>
-      </c>
-      <c r="B133" t="s">
-        <v>58</v>
-      </c>
-      <c r="C133" t="s">
-        <v>58</v>
-      </c>
-      <c r="D133">
-        <v>1</v>
-      </c>
-      <c r="E133" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A134" t="s">
-        <v>184</v>
-      </c>
-      <c r="B134" t="s">
-        <v>14</v>
-      </c>
-      <c r="C134" t="s">
-        <v>189</v>
-      </c>
-      <c r="D134">
-        <v>0</v>
-      </c>
-      <c r="E134" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>184</v>
+        <v>148</v>
       </c>
       <c r="B135" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C135" t="s">
-        <v>189</v>
+        <v>16</v>
       </c>
       <c r="D135">
         <v>0</v>
@@ -3346,649 +3451,2230 @@
         <v>95</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
+        <v>148</v>
+      </c>
+      <c r="B136" t="s">
+        <v>250</v>
+      </c>
+      <c r="C136" t="s">
+        <v>251</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>148</v>
+      </c>
+      <c r="B137" t="s">
+        <v>17</v>
+      </c>
+      <c r="C137" t="s">
+        <v>128</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>148</v>
+      </c>
+      <c r="B138" t="s">
+        <v>70</v>
+      </c>
+      <c r="C138" t="s">
+        <v>128</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>148</v>
+      </c>
+      <c r="B139" t="s">
+        <v>252</v>
+      </c>
+      <c r="C139" t="s">
+        <v>261</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>148</v>
+      </c>
+      <c r="B140" t="s">
+        <v>18</v>
+      </c>
+      <c r="C140" t="s">
+        <v>129</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>148</v>
+      </c>
+      <c r="B141" t="s">
+        <v>71</v>
+      </c>
+      <c r="C141" t="s">
+        <v>129</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>148</v>
+      </c>
+      <c r="B142" t="s">
+        <v>253</v>
+      </c>
+      <c r="C142" t="s">
+        <v>254</v>
+      </c>
+      <c r="D142">
+        <v>0</v>
+      </c>
+      <c r="E142" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>148</v>
+      </c>
+      <c r="B143" t="s">
+        <v>19</v>
+      </c>
+      <c r="C143" t="s">
+        <v>130</v>
+      </c>
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>148</v>
+      </c>
+      <c r="B144" t="s">
+        <v>72</v>
+      </c>
+      <c r="C144" t="s">
+        <v>130</v>
+      </c>
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>148</v>
+      </c>
+      <c r="B145" t="s">
+        <v>255</v>
+      </c>
+      <c r="C145" t="s">
+        <v>256</v>
+      </c>
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>148</v>
+      </c>
+      <c r="B146" t="s">
+        <v>24</v>
+      </c>
+      <c r="C146" t="s">
+        <v>78</v>
+      </c>
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>148</v>
+      </c>
+      <c r="B147" t="s">
+        <v>150</v>
+      </c>
+      <c r="C147" t="s">
+        <v>78</v>
+      </c>
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>148</v>
+      </c>
+      <c r="B148" t="s">
+        <v>257</v>
+      </c>
+      <c r="C148" t="s">
+        <v>258</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>131</v>
+      </c>
+      <c r="C149" t="s">
+        <v>131</v>
+      </c>
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>148</v>
+      </c>
+      <c r="B150" t="s">
+        <v>132</v>
+      </c>
+      <c r="C150" t="s">
+        <v>131</v>
+      </c>
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="E150" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>148</v>
+      </c>
+      <c r="B151" t="s">
+        <v>133</v>
+      </c>
+      <c r="C151" t="s">
+        <v>133</v>
+      </c>
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>148</v>
+      </c>
+      <c r="B152" t="s">
+        <v>134</v>
+      </c>
+      <c r="C152" t="s">
+        <v>133</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>148</v>
+      </c>
+      <c r="B153" t="s">
+        <v>135</v>
+      </c>
+      <c r="C153" t="s">
+        <v>135</v>
+      </c>
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="E153" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>148</v>
+      </c>
+      <c r="B154" t="s">
+        <v>136</v>
+      </c>
+      <c r="C154" t="s">
+        <v>135</v>
+      </c>
+      <c r="D154">
+        <v>0</v>
+      </c>
+      <c r="E154" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>148</v>
+      </c>
+      <c r="B155" t="s">
+        <v>137</v>
+      </c>
+      <c r="C155" t="s">
+        <v>137</v>
+      </c>
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="E155" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>148</v>
+      </c>
+      <c r="B156" t="s">
+        <v>138</v>
+      </c>
+      <c r="C156" t="s">
+        <v>137</v>
+      </c>
+      <c r="D156">
+        <v>0</v>
+      </c>
+      <c r="E156" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>148</v>
+      </c>
+      <c r="B157" t="s">
+        <v>139</v>
+      </c>
+      <c r="C157" t="s">
+        <v>139</v>
+      </c>
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>148</v>
+      </c>
+      <c r="B158" t="s">
+        <v>140</v>
+      </c>
+      <c r="C158" t="s">
+        <v>139</v>
+      </c>
+      <c r="D158">
+        <v>0</v>
+      </c>
+      <c r="E158" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>148</v>
+      </c>
+      <c r="B159" t="s">
+        <v>141</v>
+      </c>
+      <c r="C159" t="s">
+        <v>141</v>
+      </c>
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="E159" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>148</v>
+      </c>
+      <c r="B160" t="s">
+        <v>142</v>
+      </c>
+      <c r="C160" t="s">
+        <v>141</v>
+      </c>
+      <c r="D160">
+        <v>0</v>
+      </c>
+      <c r="E160" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>148</v>
+      </c>
+      <c r="B161" t="s">
+        <v>143</v>
+      </c>
+      <c r="C161" t="s">
+        <v>143</v>
+      </c>
+      <c r="D161">
+        <v>0</v>
+      </c>
+      <c r="E161" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>148</v>
+      </c>
+      <c r="B162" t="s">
+        <v>144</v>
+      </c>
+      <c r="C162" t="s">
+        <v>143</v>
+      </c>
+      <c r="D162">
+        <v>0</v>
+      </c>
+      <c r="E162" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>148</v>
+      </c>
+      <c r="B163" t="s">
+        <v>20</v>
+      </c>
+      <c r="C163" t="s">
+        <v>20</v>
+      </c>
+      <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="E163" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>148</v>
+      </c>
+      <c r="B164" t="s">
+        <v>73</v>
+      </c>
+      <c r="C164" t="s">
+        <v>20</v>
+      </c>
+      <c r="D164">
+        <v>0</v>
+      </c>
+      <c r="E164" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>148</v>
+      </c>
+      <c r="B165" t="s">
+        <v>21</v>
+      </c>
+      <c r="C165" t="s">
+        <v>21</v>
+      </c>
+      <c r="D165">
+        <v>0</v>
+      </c>
+      <c r="E165" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>148</v>
+      </c>
+      <c r="B166" t="s">
+        <v>74</v>
+      </c>
+      <c r="C166" t="s">
+        <v>21</v>
+      </c>
+      <c r="D166">
+        <v>0</v>
+      </c>
+      <c r="E166" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>148</v>
+      </c>
+      <c r="B167" t="s">
+        <v>22</v>
+      </c>
+      <c r="C167" t="s">
+        <v>22</v>
+      </c>
+      <c r="D167">
+        <v>0</v>
+      </c>
+      <c r="E167" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>148</v>
+      </c>
+      <c r="B168" t="s">
+        <v>75</v>
+      </c>
+      <c r="C168" t="s">
+        <v>22</v>
+      </c>
+      <c r="D168">
+        <v>0</v>
+      </c>
+      <c r="E168" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>148</v>
+      </c>
+      <c r="B169" t="s">
+        <v>145</v>
+      </c>
+      <c r="C169" t="s">
+        <v>145</v>
+      </c>
+      <c r="D169">
+        <v>0</v>
+      </c>
+      <c r="E169" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>148</v>
+      </c>
+      <c r="B170" t="s">
+        <v>146</v>
+      </c>
+      <c r="C170" t="s">
+        <v>145</v>
+      </c>
+      <c r="D170">
+        <v>0</v>
+      </c>
+      <c r="E170" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>148</v>
+      </c>
+      <c r="B171" t="s">
+        <v>23</v>
+      </c>
+      <c r="C171" t="s">
+        <v>79</v>
+      </c>
+      <c r="D171">
+        <v>0</v>
+      </c>
+      <c r="E171" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>148</v>
+      </c>
+      <c r="B172" t="s">
+        <v>76</v>
+      </c>
+      <c r="C172" t="s">
+        <v>79</v>
+      </c>
+      <c r="D172">
+        <v>0</v>
+      </c>
+      <c r="E172" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>148</v>
+      </c>
+      <c r="B173" t="s">
+        <v>259</v>
+      </c>
+      <c r="C173" t="s">
+        <v>260</v>
+      </c>
+      <c r="D173">
+        <v>0</v>
+      </c>
+      <c r="E173" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>149</v>
+      </c>
+      <c r="B174" t="s">
+        <v>55</v>
+      </c>
+      <c r="C174" t="s">
+        <v>55</v>
+      </c>
+      <c r="D174">
+        <v>0</v>
+      </c>
+      <c r="E174" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>149</v>
+      </c>
+      <c r="B175" t="s">
+        <v>56</v>
+      </c>
+      <c r="C175" t="s">
+        <v>181</v>
+      </c>
+      <c r="D175">
+        <v>0</v>
+      </c>
+      <c r="E175" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>149</v>
+      </c>
+      <c r="B176" t="s">
+        <v>24</v>
+      </c>
+      <c r="C176" t="s">
+        <v>24</v>
+      </c>
+      <c r="D176">
+        <v>0</v>
+      </c>
+      <c r="E176" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>149</v>
+      </c>
+      <c r="B177" t="s">
+        <v>25</v>
+      </c>
+      <c r="C177" t="s">
+        <v>25</v>
+      </c>
+      <c r="D177">
+        <v>0</v>
+      </c>
+      <c r="E177" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>149</v>
+      </c>
+      <c r="B178" t="s">
+        <v>151</v>
+      </c>
+      <c r="C178" t="s">
+        <v>26</v>
+      </c>
+      <c r="D178">
+        <v>0</v>
+      </c>
+      <c r="E178" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>149</v>
+      </c>
+      <c r="B179" t="s">
+        <v>27</v>
+      </c>
+      <c r="C179" t="s">
+        <v>27</v>
+      </c>
+      <c r="D179">
+        <v>0</v>
+      </c>
+      <c r="E179" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>149</v>
+      </c>
+      <c r="B180" t="s">
+        <v>152</v>
+      </c>
+      <c r="C180" t="s">
+        <v>27</v>
+      </c>
+      <c r="D180">
+        <v>0</v>
+      </c>
+      <c r="E180" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>149</v>
+      </c>
+      <c r="B181" t="s">
+        <v>158</v>
+      </c>
+      <c r="C181" t="s">
+        <v>159</v>
+      </c>
+      <c r="D181">
+        <v>0</v>
+      </c>
+      <c r="E181" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>149</v>
+      </c>
+      <c r="B182" t="s">
+        <v>153</v>
+      </c>
+      <c r="C182" t="s">
+        <v>28</v>
+      </c>
+      <c r="D182">
+        <v>0</v>
+      </c>
+      <c r="E182" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>149</v>
+      </c>
+      <c r="B183" t="s">
+        <v>154</v>
+      </c>
+      <c r="C183" t="s">
+        <v>28</v>
+      </c>
+      <c r="D183">
+        <v>0</v>
+      </c>
+      <c r="E183" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>149</v>
+      </c>
+      <c r="B184" t="s">
+        <v>155</v>
+      </c>
+      <c r="C184" t="s">
+        <v>29</v>
+      </c>
+      <c r="D184">
+        <v>0</v>
+      </c>
+      <c r="E184" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>149</v>
+      </c>
+      <c r="B185" t="s">
+        <v>156</v>
+      </c>
+      <c r="C185" t="s">
+        <v>29</v>
+      </c>
+      <c r="D185">
+        <v>0</v>
+      </c>
+      <c r="E185" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>149</v>
+      </c>
+      <c r="B186" t="s">
+        <v>90</v>
+      </c>
+      <c r="C186" t="s">
+        <v>30</v>
+      </c>
+      <c r="D186">
+        <v>0</v>
+      </c>
+      <c r="E186" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>149</v>
+      </c>
+      <c r="B187" t="s">
+        <v>91</v>
+      </c>
+      <c r="C187" t="s">
+        <v>30</v>
+      </c>
+      <c r="D187">
+        <v>0</v>
+      </c>
+      <c r="E187" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>149</v>
+      </c>
+      <c r="B188" t="s">
+        <v>118</v>
+      </c>
+      <c r="C188" t="s">
+        <v>31</v>
+      </c>
+      <c r="D188">
+        <v>0</v>
+      </c>
+      <c r="E188" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>149</v>
+      </c>
+      <c r="B189" t="s">
+        <v>119</v>
+      </c>
+      <c r="C189" t="s">
+        <v>31</v>
+      </c>
+      <c r="D189">
+        <v>0</v>
+      </c>
+      <c r="E189" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>149</v>
+      </c>
+      <c r="B190" t="s">
+        <v>120</v>
+      </c>
+      <c r="C190" t="s">
+        <v>32</v>
+      </c>
+      <c r="D190">
+        <v>0</v>
+      </c>
+      <c r="E190" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>149</v>
+      </c>
+      <c r="B191" t="s">
+        <v>121</v>
+      </c>
+      <c r="C191" t="s">
+        <v>32</v>
+      </c>
+      <c r="D191">
+        <v>0</v>
+      </c>
+      <c r="E191" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>149</v>
+      </c>
+      <c r="B192" t="s">
+        <v>161</v>
+      </c>
+      <c r="C192" t="s">
+        <v>33</v>
+      </c>
+      <c r="D192">
+        <v>0</v>
+      </c>
+      <c r="E192" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>149</v>
+      </c>
+      <c r="B193" t="s">
+        <v>162</v>
+      </c>
+      <c r="C193" t="s">
+        <v>33</v>
+      </c>
+      <c r="D193">
+        <v>0</v>
+      </c>
+      <c r="E193" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>149</v>
+      </c>
+      <c r="B194" t="s">
+        <v>123</v>
+      </c>
+      <c r="C194" t="s">
+        <v>34</v>
+      </c>
+      <c r="D194">
+        <v>0</v>
+      </c>
+      <c r="E194" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>149</v>
+      </c>
+      <c r="B195" t="s">
+        <v>125</v>
+      </c>
+      <c r="C195" t="s">
+        <v>34</v>
+      </c>
+      <c r="D195">
+        <v>0</v>
+      </c>
+      <c r="E195" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>149</v>
+      </c>
+      <c r="B196" t="s">
+        <v>163</v>
+      </c>
+      <c r="C196" t="s">
+        <v>34</v>
+      </c>
+      <c r="D196">
+        <v>0</v>
+      </c>
+      <c r="E196" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>149</v>
+      </c>
+      <c r="B197" t="s">
+        <v>164</v>
+      </c>
+      <c r="C197" t="s">
+        <v>34</v>
+      </c>
+      <c r="D197">
+        <v>0</v>
+      </c>
+      <c r="E197" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>149</v>
+      </c>
+      <c r="B198" t="s">
+        <v>111</v>
+      </c>
+      <c r="C198" t="s">
+        <v>34</v>
+      </c>
+      <c r="D198">
+        <v>0</v>
+      </c>
+      <c r="E198" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>149</v>
+      </c>
+      <c r="B199" t="s">
+        <v>112</v>
+      </c>
+      <c r="C199" t="s">
+        <v>34</v>
+      </c>
+      <c r="D199">
+        <v>0</v>
+      </c>
+      <c r="E199" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>149</v>
+      </c>
+      <c r="B200" t="s">
+        <v>165</v>
+      </c>
+      <c r="C200" t="s">
+        <v>34</v>
+      </c>
+      <c r="D200">
+        <v>0</v>
+      </c>
+      <c r="E200" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>149</v>
+      </c>
+      <c r="B201" t="s">
+        <v>166</v>
+      </c>
+      <c r="C201" t="s">
+        <v>34</v>
+      </c>
+      <c r="D201">
+        <v>0</v>
+      </c>
+      <c r="E201" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>149</v>
+      </c>
+      <c r="B202" t="s">
+        <v>167</v>
+      </c>
+      <c r="C202" t="s">
+        <v>41</v>
+      </c>
+      <c r="D202">
+        <v>0</v>
+      </c>
+      <c r="E202" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>149</v>
+      </c>
+      <c r="B203" t="s">
+        <v>168</v>
+      </c>
+      <c r="C203" t="s">
+        <v>41</v>
+      </c>
+      <c r="D203">
+        <v>0</v>
+      </c>
+      <c r="E203" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>149</v>
+      </c>
+      <c r="B204" t="s">
+        <v>169</v>
+      </c>
+      <c r="C204" t="s">
+        <v>42</v>
+      </c>
+      <c r="D204">
+        <v>0</v>
+      </c>
+      <c r="E204" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>149</v>
+      </c>
+      <c r="B205" t="s">
+        <v>170</v>
+      </c>
+      <c r="C205" t="s">
+        <v>42</v>
+      </c>
+      <c r="D205">
+        <v>0</v>
+      </c>
+      <c r="E205" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
+        <v>149</v>
+      </c>
+      <c r="B206" t="s">
+        <v>171</v>
+      </c>
+      <c r="C206" t="s">
+        <v>43</v>
+      </c>
+      <c r="D206">
+        <v>0</v>
+      </c>
+      <c r="E206" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>149</v>
+      </c>
+      <c r="B207" t="s">
+        <v>172</v>
+      </c>
+      <c r="C207" t="s">
+        <v>43</v>
+      </c>
+      <c r="D207">
+        <v>0</v>
+      </c>
+      <c r="E207" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>149</v>
+      </c>
+      <c r="B208" t="s">
+        <v>173</v>
+      </c>
+      <c r="C208" t="s">
+        <v>44</v>
+      </c>
+      <c r="D208">
+        <v>0</v>
+      </c>
+      <c r="E208" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>149</v>
+      </c>
+      <c r="B209" t="s">
+        <v>174</v>
+      </c>
+      <c r="C209" t="s">
+        <v>44</v>
+      </c>
+      <c r="D209">
+        <v>0</v>
+      </c>
+      <c r="E209" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
+        <v>149</v>
+      </c>
+      <c r="B210" t="s">
+        <v>133</v>
+      </c>
+      <c r="C210" t="s">
+        <v>175</v>
+      </c>
+      <c r="D210">
+        <v>0</v>
+      </c>
+      <c r="E210" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
+        <v>149</v>
+      </c>
+      <c r="B211" t="s">
+        <v>134</v>
+      </c>
+      <c r="C211" t="s">
+        <v>175</v>
+      </c>
+      <c r="D211">
+        <v>0</v>
+      </c>
+      <c r="E211" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
+        <v>149</v>
+      </c>
+      <c r="B212" t="s">
+        <v>135</v>
+      </c>
+      <c r="C212" t="s">
+        <v>176</v>
+      </c>
+      <c r="D212">
+        <v>0</v>
+      </c>
+      <c r="E212" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
+        <v>149</v>
+      </c>
+      <c r="B213" t="s">
+        <v>136</v>
+      </c>
+      <c r="C213" t="s">
+        <v>176</v>
+      </c>
+      <c r="D213">
+        <v>0</v>
+      </c>
+      <c r="E213" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A214" t="s">
+        <v>149</v>
+      </c>
+      <c r="B214" t="s">
+        <v>137</v>
+      </c>
+      <c r="C214" t="s">
+        <v>177</v>
+      </c>
+      <c r="D214">
+        <v>0</v>
+      </c>
+      <c r="E214" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A215" t="s">
+        <v>149</v>
+      </c>
+      <c r="B215" t="s">
+        <v>138</v>
+      </c>
+      <c r="C215" t="s">
+        <v>177</v>
+      </c>
+      <c r="D215">
+        <v>0</v>
+      </c>
+      <c r="E215" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A216" t="s">
+        <v>149</v>
+      </c>
+      <c r="B216" t="s">
+        <v>139</v>
+      </c>
+      <c r="C216" t="s">
+        <v>178</v>
+      </c>
+      <c r="D216">
+        <v>0</v>
+      </c>
+      <c r="E216" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A217" t="s">
+        <v>149</v>
+      </c>
+      <c r="B217" t="s">
+        <v>140</v>
+      </c>
+      <c r="C217" t="s">
+        <v>178</v>
+      </c>
+      <c r="D217">
+        <v>0</v>
+      </c>
+      <c r="E217" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A218" t="s">
+        <v>149</v>
+      </c>
+      <c r="B218" t="s">
+        <v>143</v>
+      </c>
+      <c r="C218" t="s">
+        <v>179</v>
+      </c>
+      <c r="D218">
+        <v>0</v>
+      </c>
+      <c r="E218" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A219" t="s">
+        <v>149</v>
+      </c>
+      <c r="B219" t="s">
+        <v>144</v>
+      </c>
+      <c r="C219" t="s">
+        <v>179</v>
+      </c>
+      <c r="D219">
+        <v>0</v>
+      </c>
+      <c r="E219" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
+        <v>149</v>
+      </c>
+      <c r="B220" t="s">
+        <v>141</v>
+      </c>
+      <c r="C220" t="s">
+        <v>180</v>
+      </c>
+      <c r="D220">
+        <v>0</v>
+      </c>
+      <c r="E220" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A221" t="s">
+        <v>149</v>
+      </c>
+      <c r="B221" t="s">
+        <v>142</v>
+      </c>
+      <c r="C221" t="s">
+        <v>180</v>
+      </c>
+      <c r="D221">
+        <v>0</v>
+      </c>
+      <c r="E221" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A222" t="s">
         <v>184</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B222" t="s">
+        <v>55</v>
+      </c>
+      <c r="C222" t="s">
+        <v>185</v>
+      </c>
+      <c r="D222">
+        <v>1</v>
+      </c>
+      <c r="E222" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A223" t="s">
+        <v>184</v>
+      </c>
+      <c r="B223" t="s">
+        <v>56</v>
+      </c>
+      <c r="C223" t="s">
+        <v>185</v>
+      </c>
+      <c r="D223">
+        <v>1</v>
+      </c>
+      <c r="E223" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A224" t="s">
+        <v>184</v>
+      </c>
+      <c r="B224" t="s">
+        <v>54</v>
+      </c>
+      <c r="C224" t="s">
+        <v>187</v>
+      </c>
+      <c r="D224">
+        <v>0</v>
+      </c>
+      <c r="E224" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
+        <v>184</v>
+      </c>
+      <c r="B225" t="s">
+        <v>57</v>
+      </c>
+      <c r="C225" t="s">
+        <v>57</v>
+      </c>
+      <c r="D225">
+        <v>1</v>
+      </c>
+      <c r="E225" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A226" t="s">
+        <v>184</v>
+      </c>
+      <c r="B226" t="s">
+        <v>58</v>
+      </c>
+      <c r="C226" t="s">
+        <v>58</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+      <c r="E226" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A227" t="s">
+        <v>184</v>
+      </c>
+      <c r="B227" t="s">
+        <v>14</v>
+      </c>
+      <c r="C227" t="s">
+        <v>189</v>
+      </c>
+      <c r="D227">
+        <v>0</v>
+      </c>
+      <c r="E227" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A228" t="s">
+        <v>184</v>
+      </c>
+      <c r="B228" t="s">
+        <v>68</v>
+      </c>
+      <c r="C228" t="s">
+        <v>189</v>
+      </c>
+      <c r="D228">
+        <v>0</v>
+      </c>
+      <c r="E228" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A229" t="s">
+        <v>184</v>
+      </c>
+      <c r="B229" t="s">
         <v>151</v>
       </c>
-      <c r="C136" t="s">
+      <c r="C229" t="s">
         <v>190</v>
       </c>
-      <c r="D136">
-        <v>0</v>
-      </c>
-      <c r="E136" t="s">
+      <c r="D229">
+        <v>0</v>
+      </c>
+      <c r="E229" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A137" t="s">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A230" t="s">
         <v>184</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B230" t="s">
         <v>191</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C230" t="s">
         <v>192</v>
       </c>
-      <c r="D137">
-        <v>0</v>
-      </c>
-      <c r="E137" t="s">
+      <c r="D230">
+        <v>0</v>
+      </c>
+      <c r="E230" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A231" t="s">
         <v>184</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B231" t="s">
         <v>91</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C231" t="s">
         <v>192</v>
       </c>
-      <c r="D138">
-        <v>0</v>
-      </c>
-      <c r="E138" t="s">
+      <c r="D231">
+        <v>0</v>
+      </c>
+      <c r="E231" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A139" t="s">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A232" t="s">
         <v>184</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B232" t="s">
         <v>194</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C232" t="s">
         <v>195</v>
       </c>
-      <c r="D139">
-        <v>0</v>
-      </c>
-      <c r="E139" t="s">
+      <c r="D232">
+        <v>0</v>
+      </c>
+      <c r="E232" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A140" t="s">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A233" t="s">
         <v>184</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B233" t="s">
         <v>197</v>
       </c>
-      <c r="C140" t="s">
+      <c r="C233" t="s">
         <v>195</v>
       </c>
-      <c r="D140">
-        <v>0</v>
-      </c>
-      <c r="E140" t="s">
+      <c r="D233">
+        <v>0</v>
+      </c>
+      <c r="E233" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A141" t="s">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A234" t="s">
         <v>184</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B234" t="s">
         <v>109</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C234" t="s">
         <v>196</v>
       </c>
-      <c r="D141">
-        <v>0</v>
-      </c>
-      <c r="E141" t="s">
+      <c r="D234">
+        <v>0</v>
+      </c>
+      <c r="E234" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A235" t="s">
         <v>184</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B235" t="s">
         <v>110</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C235" t="s">
         <v>196</v>
       </c>
-      <c r="D142">
-        <v>0</v>
-      </c>
-      <c r="E142" t="s">
+      <c r="D235">
+        <v>0</v>
+      </c>
+      <c r="E235" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A143" t="s">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A236" t="s">
         <v>184</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B236" t="s">
         <v>118</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C236" t="s">
         <v>198</v>
       </c>
-      <c r="D143">
-        <v>0</v>
-      </c>
-      <c r="E143" t="s">
+      <c r="D236">
+        <v>0</v>
+      </c>
+      <c r="E236" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A144" t="s">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A237" t="s">
         <v>184</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B237" t="s">
         <v>119</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C237" t="s">
         <v>198</v>
       </c>
-      <c r="D144">
-        <v>0</v>
-      </c>
-      <c r="E144" t="s">
+      <c r="D237">
+        <v>0</v>
+      </c>
+      <c r="E237" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A145" t="s">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A238" t="s">
         <v>184</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B238" t="s">
         <v>120</v>
       </c>
-      <c r="C145" t="s">
+      <c r="C238" t="s">
         <v>199</v>
       </c>
-      <c r="D145">
-        <v>0</v>
-      </c>
-      <c r="E145" t="s">
+      <c r="D238">
+        <v>0</v>
+      </c>
+      <c r="E238" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A146" t="s">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A239" t="s">
         <v>184</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B239" t="s">
         <v>121</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C239" t="s">
         <v>199</v>
       </c>
-      <c r="D146">
-        <v>0</v>
-      </c>
-      <c r="E146" t="s">
+      <c r="D239">
+        <v>0</v>
+      </c>
+      <c r="E239" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A147" t="s">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A240" t="s">
         <v>184</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B240" t="s">
         <v>161</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C240" t="s">
         <v>200</v>
       </c>
-      <c r="D147">
-        <v>0</v>
-      </c>
-      <c r="E147" t="s">
+      <c r="D240">
+        <v>0</v>
+      </c>
+      <c r="E240" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A241" t="s">
         <v>184</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B241" t="s">
         <v>162</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C241" t="s">
         <v>200</v>
       </c>
-      <c r="D148">
-        <v>0</v>
-      </c>
-      <c r="E148" t="s">
+      <c r="D241">
+        <v>0</v>
+      </c>
+      <c r="E241" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A149" t="s">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A242" t="s">
         <v>184</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B242" t="s">
         <v>123</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C242" t="s">
         <v>201</v>
       </c>
-      <c r="D149">
-        <v>0</v>
-      </c>
-      <c r="E149" t="s">
+      <c r="D242">
+        <v>0</v>
+      </c>
+      <c r="E242" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A150" t="s">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A243" t="s">
         <v>184</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B243" t="s">
         <v>125</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C243" t="s">
         <v>201</v>
       </c>
-      <c r="D150">
-        <v>0</v>
-      </c>
-      <c r="E150" t="s">
+      <c r="D243">
+        <v>0</v>
+      </c>
+      <c r="E243" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A151" t="s">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A244" t="s">
         <v>184</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B244" t="s">
         <v>165</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C244" t="s">
         <v>202</v>
       </c>
-      <c r="D151">
-        <v>0</v>
-      </c>
-      <c r="E151" t="s">
+      <c r="D244">
+        <v>0</v>
+      </c>
+      <c r="E244" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A152" t="s">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A245" t="s">
         <v>184</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B245" t="s">
         <v>166</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C245" t="s">
         <v>202</v>
       </c>
-      <c r="D152">
-        <v>0</v>
-      </c>
-      <c r="E152" t="s">
+      <c r="D245">
+        <v>0</v>
+      </c>
+      <c r="E245" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A153" t="s">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A246" t="s">
         <v>184</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B246" t="s">
         <v>167</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C246" t="s">
         <v>203</v>
       </c>
-      <c r="D153">
-        <v>0</v>
-      </c>
-      <c r="E153" t="s">
+      <c r="D246">
+        <v>0</v>
+      </c>
+      <c r="E246" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A247" t="s">
         <v>184</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B247" t="s">
         <v>168</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C247" t="s">
         <v>203</v>
       </c>
-      <c r="D154">
-        <v>0</v>
-      </c>
-      <c r="E154" t="s">
+      <c r="D247">
+        <v>0</v>
+      </c>
+      <c r="E247" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A248" t="s">
         <v>184</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B248" t="s">
         <v>169</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C248" t="s">
         <v>204</v>
       </c>
-      <c r="D155">
-        <v>0</v>
-      </c>
-      <c r="E155" t="s">
+      <c r="D248">
+        <v>0</v>
+      </c>
+      <c r="E248" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A156" t="s">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A249" t="s">
         <v>184</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B249" t="s">
         <v>170</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C249" t="s">
         <v>204</v>
       </c>
-      <c r="D156">
-        <v>0</v>
-      </c>
-      <c r="E156" t="s">
+      <c r="D249">
+        <v>0</v>
+      </c>
+      <c r="E249" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A157" t="s">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A250" t="s">
         <v>184</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B250" t="s">
         <v>171</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C250" t="s">
         <v>205</v>
       </c>
-      <c r="D157">
-        <v>0</v>
-      </c>
-      <c r="E157" t="s">
+      <c r="D250">
+        <v>0</v>
+      </c>
+      <c r="E250" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A158" t="s">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A251" t="s">
         <v>184</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B251" t="s">
         <v>172</v>
       </c>
-      <c r="C158" t="s">
+      <c r="C251" t="s">
         <v>205</v>
       </c>
-      <c r="D158">
-        <v>0</v>
-      </c>
-      <c r="E158" t="s">
+      <c r="D251">
+        <v>0</v>
+      </c>
+      <c r="E251" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A159" t="s">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A252" t="s">
         <v>184</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B252" t="s">
         <v>206</v>
       </c>
-      <c r="C159" t="s">
+      <c r="C252" t="s">
         <v>208</v>
       </c>
-      <c r="D159">
-        <v>0</v>
-      </c>
-      <c r="E159" t="s">
+      <c r="D252">
+        <v>0</v>
+      </c>
+      <c r="E252" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A160" t="s">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A253" t="s">
         <v>184</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B253" t="s">
         <v>207</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C253" t="s">
         <v>208</v>
       </c>
-      <c r="D160">
-        <v>0</v>
-      </c>
-      <c r="E160" t="s">
+      <c r="D253">
+        <v>0</v>
+      </c>
+      <c r="E253" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A161" t="s">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A254" t="s">
         <v>184</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B254" t="s">
         <v>209</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C254" t="s">
         <v>211</v>
       </c>
-      <c r="D161">
-        <v>0</v>
-      </c>
-      <c r="E161" t="s">
+      <c r="D254">
+        <v>0</v>
+      </c>
+      <c r="E254" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A162" t="s">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A255" t="s">
         <v>184</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B255" t="s">
         <v>210</v>
       </c>
-      <c r="C162" t="s">
+      <c r="C255" t="s">
         <v>211</v>
       </c>
-      <c r="D162">
-        <v>0</v>
-      </c>
-      <c r="E162" t="s">
+      <c r="D255">
+        <v>0</v>
+      </c>
+      <c r="E255" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A163" t="s">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A256" t="s">
         <v>184</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B256" t="s">
         <v>212</v>
       </c>
-      <c r="C163" t="s">
+      <c r="C256" t="s">
         <v>214</v>
       </c>
-      <c r="D163">
-        <v>0</v>
-      </c>
-      <c r="E163" t="s">
+      <c r="D256">
+        <v>0</v>
+      </c>
+      <c r="E256" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" t="s">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A257" t="s">
         <v>184</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B257" t="s">
         <v>213</v>
       </c>
-      <c r="C164" t="s">
+      <c r="C257" t="s">
         <v>214</v>
       </c>
-      <c r="D164">
-        <v>0</v>
-      </c>
-      <c r="E164" t="s">
+      <c r="D257">
+        <v>0</v>
+      </c>
+      <c r="E257" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165" t="s">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A258" t="s">
         <v>184</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B258" t="s">
         <v>5</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C258" t="s">
         <v>215</v>
       </c>
-      <c r="D165">
-        <v>0</v>
-      </c>
-      <c r="E165" t="s">
+      <c r="D258">
+        <v>0</v>
+      </c>
+      <c r="E258" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A166" t="s">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A259" t="s">
         <v>184</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B259" t="s">
         <v>61</v>
       </c>
-      <c r="C166" t="s">
+      <c r="C259" t="s">
         <v>215</v>
       </c>
-      <c r="D166">
-        <v>0</v>
-      </c>
-      <c r="E166" t="s">
+      <c r="D259">
+        <v>0</v>
+      </c>
+      <c r="E259" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A167" t="s">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A260" t="s">
         <v>184</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B260" t="s">
         <v>7</v>
       </c>
-      <c r="C167" t="s">
+      <c r="C260" t="s">
         <v>216</v>
       </c>
-      <c r="D167">
-        <v>0</v>
-      </c>
-      <c r="E167" t="s">
+      <c r="D260">
+        <v>0</v>
+      </c>
+      <c r="E260" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A168" t="s">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A261" t="s">
         <v>184</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B261" t="s">
         <v>62</v>
       </c>
-      <c r="C168" t="s">
+      <c r="C261" t="s">
         <v>216</v>
       </c>
-      <c r="D168">
-        <v>0</v>
-      </c>
-      <c r="E168" t="s">
+      <c r="D261">
+        <v>0</v>
+      </c>
+      <c r="E261" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A169" t="s">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A262" t="s">
         <v>184</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B262" t="s">
         <v>2</v>
       </c>
-      <c r="C169" t="s">
+      <c r="C262" t="s">
         <v>218</v>
       </c>
-      <c r="D169">
-        <v>0</v>
-      </c>
-      <c r="E169" t="s">
+      <c r="D262">
+        <v>0</v>
+      </c>
+      <c r="E262" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A170" t="s">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A263" t="s">
         <v>184</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B263" t="s">
         <v>59</v>
       </c>
-      <c r="C170" t="s">
+      <c r="C263" t="s">
         <v>218</v>
       </c>
-      <c r="D170">
-        <v>0</v>
-      </c>
-      <c r="E170" t="s">
+      <c r="D263">
+        <v>0</v>
+      </c>
+      <c r="E263" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A171" t="s">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A264" t="s">
         <v>184</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B264" t="s">
         <v>4</v>
       </c>
-      <c r="C171" t="s">
+      <c r="C264" t="s">
         <v>217</v>
       </c>
-      <c r="D171">
-        <v>0</v>
-      </c>
-      <c r="E171" t="s">
+      <c r="D264">
+        <v>0</v>
+      </c>
+      <c r="E264" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A265" t="s">
         <v>184</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B265" t="s">
         <v>60</v>
       </c>
-      <c r="C172" t="s">
+      <c r="C265" t="s">
         <v>217</v>
       </c>
-      <c r="D172">
-        <v>0</v>
-      </c>
-      <c r="E172" t="s">
+      <c r="D265">
+        <v>0</v>
+      </c>
+      <c r="E265" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A173" t="s">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A266" t="s">
         <v>184</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B266" t="s">
         <v>3</v>
       </c>
-      <c r="C173" t="s">
+      <c r="C266" t="s">
         <v>219</v>
       </c>
-      <c r="D173">
-        <v>0</v>
-      </c>
-      <c r="E173" t="s">
+      <c r="D266">
+        <v>0</v>
+      </c>
+      <c r="E266" t="s">
         <v>223</v>
       </c>
     </row>
@@ -3999,17 +5685,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4020,7 +5706,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -4028,7 +5714,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -4036,7 +5722,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -4044,7 +5730,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -4055,7 +5741,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -4066,7 +5752,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -4077,7 +5763,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -4088,7 +5774,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -4099,7 +5785,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -4110,7 +5796,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -4121,7 +5807,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -4132,7 +5818,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -4143,7 +5829,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -4154,7 +5840,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -4165,7 +5851,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -4176,7 +5862,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -4187,7 +5873,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -4198,7 +5884,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -4209,7 +5895,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -4220,7 +5906,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -4231,7 +5917,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -4242,7 +5928,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -4260,26 +5946,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A23" sqref="A1:A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -4288,7 +5968,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005A4E187637A3D943B13D4FA44327B42D" ma:contentTypeVersion="13" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="354618f99ac8d551f15dc6e0a8baeca2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="e113ed62-8e2c-4f9f-b234-ad8b23c2d027" xmlns:ns4="c9a92c53-0853-4cdf-aa78-a0ed278ccc08" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6ced5b908be0579bb30ef1f9b48929e4" ns3:_="" ns4:_="">
     <xsd:import namespace="e113ed62-8e2c-4f9f-b234-ad8b23c2d027"/>
@@ -4511,24 +6191,13 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A53F3B2E-C90E-419E-8E4B-75BFE8033C82}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="e113ed62-8e2c-4f9f-b234-ad8b23c2d027"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="c9a92c53-0853-4cdf-aa78-a0ed278ccc08"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8ABA0433-E44C-40F2-AC7F-234E5B0DA53F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -4536,7 +6205,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D51F2C9D-CD5E-4DED-B6EF-A5A99D6587F8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4553,4 +6222,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A53F3B2E-C90E-419E-8E4B-75BFE8033C82}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="e113ed62-8e2c-4f9f-b234-ad8b23c2d027"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="c9a92c53-0853-4cdf-aa78-a0ed278ccc08"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>